--- a/quiz/Quiz_Network_03_A.xlsx
+++ b/quiz/Quiz_Network_03_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957CAF9-F57D-8043-B618-7DAE9670776D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E40CAB-FC0B-974B-BEF2-A6174737095B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="31040" windowHeight="19780" activeTab="1" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
+    <workbookView xWindow="-7840" yWindow="-13960" windowWidth="27320" windowHeight="13960" activeTab="1" xr2:uid="{68FE8602-DD5A-D848-9B19-1A11977F4B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="3" r:id="rId1"/>
